--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -57,7 +57,6 @@
     <sheet name="w09" sheetId="21" r:id="rId43"/>
     <sheet name="F08" sheetId="22" r:id="rId44"/>
     <sheet name="sum08" sheetId="23" r:id="rId45"/>
-    <sheet name="Settings" sheetId="87" r:id="rId46"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'F16'!$A:$F</definedName>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8225" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8313" uniqueCount="1491">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4287,280 +4286,274 @@
     <t>ETB105</t>
   </si>
   <si>
+    <t>EE3030</t>
+  </si>
+  <si>
+    <t>Circuit Analysis II</t>
+  </si>
+  <si>
+    <t>EE4229</t>
+  </si>
+  <si>
+    <t>Digital Signal Processing Lab</t>
+  </si>
+  <si>
+    <t>EE4820</t>
+  </si>
+  <si>
+    <t>Biomed Signal Processing</t>
+  </si>
+  <si>
+    <t>F 1200-230PM</t>
+  </si>
+  <si>
+    <t>EE4540</t>
+  </si>
+  <si>
+    <t>T 800-950AM</t>
+  </si>
+  <si>
+    <t>F 100-330PM</t>
+  </si>
+  <si>
+    <t>EE2449-04</t>
+  </si>
+  <si>
+    <t>M 1100AM-130PM</t>
+  </si>
+  <si>
+    <t>EE2449-05</t>
+  </si>
+  <si>
+    <t>W 1100AM-130PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FALL SEMESTER 2018 COURSE LIST</t>
+  </si>
+  <si>
+    <t>T 200-430PM</t>
+  </si>
+  <si>
+    <t>SH260</t>
+  </si>
+  <si>
+    <t>M 800-940AM</t>
+  </si>
+  <si>
+    <t>M 200-340PM</t>
+  </si>
+  <si>
+    <t>T 1200-140PM</t>
+  </si>
+  <si>
+    <t>EE2801</t>
+  </si>
+  <si>
+    <t>Intro to Biomed Engineering</t>
+  </si>
+  <si>
+    <t>Won/Raymond</t>
+  </si>
+  <si>
+    <t>SH366</t>
+  </si>
+  <si>
+    <t>SH240</t>
+  </si>
+  <si>
+    <t>MWF 800-1030AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 WEEK SUMMER INTERSESSION 2018 COURSE LIST</t>
+  </si>
+  <si>
+    <t>EE 4330-80</t>
+  </si>
+  <si>
+    <t>MW 6:00pm-10:15pm</t>
+  </si>
+  <si>
+    <t>EE 4540-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SUMMER 2018 COURSE LIST (Session C: 5 WEEK SESSION, JULY 5 TO AUGUST 8)</t>
+  </si>
+  <si>
+    <t>EE 3000-80</t>
+  </si>
+  <si>
+    <t>MW 6:00pm-7:53pm</t>
+  </si>
+  <si>
+    <t>EE 3700-80</t>
+  </si>
+  <si>
+    <t>MW 8:00am-9:53am</t>
+  </si>
+  <si>
+    <t>Graduate Directed Study</t>
+  </si>
+  <si>
+    <t>EE 5980-81</t>
+  </si>
+  <si>
+    <t>Programmable Logic Controllers (PLC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SUMMER 2018 COURSE LIST (Session A: 10 WEEK SESSION, May 29 TO AUGUST 11)</t>
+  </si>
+  <si>
+    <t>EE 5970-80</t>
+  </si>
+  <si>
+    <t>Graduate Research</t>
+  </si>
+  <si>
+    <t>EE 5990-80</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SUMMER 2018 COURSE LIST (Session B: 5 WEEK SESSION, MAY 29 TO JULY 3)</t>
+  </si>
+  <si>
+    <t>Probability, Random Variable, and Random Processes</t>
+  </si>
+  <si>
+    <t>SH165</t>
+  </si>
+  <si>
+    <t>Linker</t>
+  </si>
+  <si>
+    <t>Emrani</t>
+  </si>
+  <si>
+    <t>EE3309-01</t>
+  </si>
+  <si>
+    <t>Fragoso</t>
+  </si>
+  <si>
+    <t>EE3309-02</t>
+  </si>
+  <si>
+    <t>Lim</t>
+  </si>
+  <si>
+    <t>T 1000-1140AM</t>
+  </si>
+  <si>
+    <t>SH246</t>
+  </si>
+  <si>
+    <t>Posted 8/28/2018</t>
+  </si>
+  <si>
+    <t>W 8-950AM</t>
+  </si>
+  <si>
+    <t>F 800-950AM</t>
+  </si>
+  <si>
+    <t>T 1000-1150AM</t>
+  </si>
+  <si>
+    <t>T 1200-150PM</t>
+  </si>
+  <si>
+    <t>R 200-430PM</t>
+  </si>
+  <si>
+    <t>W 1000-1150AM</t>
+  </si>
+  <si>
+    <t>FA218</t>
+  </si>
+  <si>
+    <t>T 200-350PM</t>
+  </si>
+  <si>
+    <t>F 200 - 430PM</t>
+  </si>
+  <si>
+    <t>M 750-930PM</t>
+  </si>
+  <si>
+    <t>KHB3012</t>
+  </si>
+  <si>
+    <t>EE3810-05</t>
+  </si>
+  <si>
+    <t>ST:Machine Learning Principles and Applications</t>
+  </si>
+  <si>
+    <t>Digital Control System</t>
+  </si>
+  <si>
+    <t>EE5320</t>
+  </si>
+  <si>
+    <t>Vehicle Electrification</t>
+  </si>
+  <si>
+    <t>Posted 10/15/2018</t>
+  </si>
+  <si>
+    <t>EE2040-01</t>
+  </si>
+  <si>
     <t>SHC135</t>
   </si>
   <si>
-    <t>EE3030</t>
-  </si>
-  <si>
-    <t>Circuit Analysis II</t>
-  </si>
-  <si>
-    <t>EE4229</t>
-  </si>
-  <si>
-    <t>Digital Signal Processing Lab</t>
-  </si>
-  <si>
-    <t>EE4820</t>
-  </si>
-  <si>
-    <t>Biomed Signal Processing</t>
-  </si>
-  <si>
-    <t>F 1200-230PM</t>
+    <t>EE2040-02</t>
+  </si>
+  <si>
+    <t>KHB2006</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>MW 800-850AM</t>
+  </si>
+  <si>
+    <t>TR 1000-1050AM</t>
+  </si>
+  <si>
+    <t>W 900-1050AM</t>
+  </si>
+  <si>
+    <t>TR 1200-1250PM</t>
+  </si>
+  <si>
+    <t>KHD2071</t>
+  </si>
+  <si>
+    <t>MWF 8-850AM</t>
+  </si>
+  <si>
+    <t>M 200-350PM</t>
+  </si>
+  <si>
+    <t>M 800-950AM</t>
+  </si>
+  <si>
+    <t>Won/Barzegarjalali</t>
+  </si>
+  <si>
+    <t>F 900-1145AM</t>
+  </si>
+  <si>
+    <t>ST: Fundamentals of Machine Learning</t>
+  </si>
+  <si>
+    <t>Mondin/Agarwal</t>
   </si>
   <si>
     <t>KHLHI</t>
-  </si>
-  <si>
-    <t>MW 800-850AM</t>
-  </si>
-  <si>
-    <t>EE4540</t>
-  </si>
-  <si>
-    <t>ST: Fundamentals of Machine Learning</t>
-  </si>
-  <si>
-    <t>Mondin/Agarwal</t>
-  </si>
-  <si>
-    <t>TR 1000-1050AM</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>W 900-1050AM</t>
-  </si>
-  <si>
-    <t>M 200-350PM</t>
-  </si>
-  <si>
-    <t>T 800-950AM</t>
-  </si>
-  <si>
-    <t>M 800-950AM</t>
-  </si>
-  <si>
-    <t>F 900-1145AM</t>
-  </si>
-  <si>
-    <t>F 100-330PM</t>
-  </si>
-  <si>
-    <t>MWF 8-850AM</t>
-  </si>
-  <si>
-    <t>EE2449-04</t>
-  </si>
-  <si>
-    <t>M 1100AM-130PM</t>
-  </si>
-  <si>
-    <t>EE2449-05</t>
-  </si>
-  <si>
-    <t>W 1100AM-130PM</t>
-  </si>
-  <si>
-    <t>Won/Barzegarjalali</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FALL SEMESTER 2018 COURSE LIST</t>
-  </si>
-  <si>
-    <t>TR 1200-1250PM</t>
-  </si>
-  <si>
-    <t>T 200-430PM</t>
-  </si>
-  <si>
-    <t>EE2040-01</t>
-  </si>
-  <si>
-    <t>EE2040-02</t>
-  </si>
-  <si>
-    <t>KHB2006</t>
-  </si>
-  <si>
-    <t>SH260</t>
-  </si>
-  <si>
-    <t>M 800-940AM</t>
-  </si>
-  <si>
-    <t>M 200-340PM</t>
-  </si>
-  <si>
-    <t>T 1200-140PM</t>
-  </si>
-  <si>
-    <t>EE2801</t>
-  </si>
-  <si>
-    <t>Intro to Biomed Engineering</t>
-  </si>
-  <si>
-    <t>Won/Raymond</t>
-  </si>
-  <si>
-    <t>SH366</t>
-  </si>
-  <si>
-    <t>SH240</t>
-  </si>
-  <si>
-    <t>MWF 800-1030AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5 WEEK SUMMER INTERSESSION 2018 COURSE LIST</t>
-  </si>
-  <si>
-    <t>EE 4330-80</t>
-  </si>
-  <si>
-    <t>MW 6:00pm-10:15pm</t>
-  </si>
-  <si>
-    <t>EE 4540-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        SUMMER 2018 COURSE LIST (Session C: 5 WEEK SESSION, JULY 5 TO AUGUST 8)</t>
-  </si>
-  <si>
-    <t>EE 3000-80</t>
-  </si>
-  <si>
-    <t>MW 6:00pm-7:53pm</t>
-  </si>
-  <si>
-    <t>EE 3700-80</t>
-  </si>
-  <si>
-    <t>MW 8:00am-9:53am</t>
-  </si>
-  <si>
-    <t>Graduate Directed Study</t>
-  </si>
-  <si>
-    <t>EE 5980-81</t>
-  </si>
-  <si>
-    <t>KHD2071</t>
-  </si>
-  <si>
-    <t>Programmable Logic Controllers (PLC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        SUMMER 2018 COURSE LIST (Session A: 10 WEEK SESSION, May 29 TO AUGUST 11)</t>
-  </si>
-  <si>
-    <t>EE 5970-80</t>
-  </si>
-  <si>
-    <t>Graduate Research</t>
-  </si>
-  <si>
-    <t>EE 5990-80</t>
-  </si>
-  <si>
-    <t>Thesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        SUMMER 2018 COURSE LIST (Session B: 5 WEEK SESSION, MAY 29 TO JULY 3)</t>
-  </si>
-  <si>
-    <t>Probability, Random Variable, and Random Processes</t>
-  </si>
-  <si>
-    <t>SH165</t>
-  </si>
-  <si>
-    <t>Linker</t>
-  </si>
-  <si>
-    <t>Emrani</t>
-  </si>
-  <si>
-    <t>EE3309-01</t>
-  </si>
-  <si>
-    <t>Fragoso</t>
-  </si>
-  <si>
-    <t>EE3309-02</t>
-  </si>
-  <si>
-    <t>Lim</t>
-  </si>
-  <si>
-    <t>T 1000-1140AM</t>
-  </si>
-  <si>
-    <t>SH246</t>
-  </si>
-  <si>
-    <t>Posted 8/28/2018</t>
-  </si>
-  <si>
-    <t>W 8-950AM</t>
-  </si>
-  <si>
-    <t>F 800-950AM</t>
-  </si>
-  <si>
-    <t>T 1000-1150AM</t>
-  </si>
-  <si>
-    <t>T 1200-150PM</t>
-  </si>
-  <si>
-    <t>R 200-430PM</t>
-  </si>
-  <si>
-    <t>W 1000-1150AM</t>
-  </si>
-  <si>
-    <t>FA218</t>
-  </si>
-  <si>
-    <t>T 200-350PM</t>
-  </si>
-  <si>
-    <t>F 200 - 430PM</t>
-  </si>
-  <si>
-    <t>M 750-930PM</t>
-  </si>
-  <si>
-    <t>KHB3012</t>
-  </si>
-  <si>
-    <t>EE3810-05</t>
-  </si>
-  <si>
-    <t>ST:Machine Learning Principles and Applications</t>
-  </si>
-  <si>
-    <t>Digital Control System</t>
-  </si>
-  <si>
-    <t>EE5320</t>
-  </si>
-  <si>
-    <t>Vehicle Electrification</t>
-  </si>
-  <si>
-    <t>Posted 9/24/2018</t>
-  </si>
-  <si>
-    <t>Link to schedule</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1lf3kidE3w-QABunk53g6oaq4yqsIiv7o</t>
   </si>
 </sst>
 </file>
@@ -6361,7 +6354,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="466">
+  <cellXfs count="465">
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
@@ -7316,7 +7309,6 @@
     <xf numFmtId="16" fontId="113" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="111"/>
     <xf numFmtId="0" fontId="118" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8077,7 +8069,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -8090,7 +8082,7 @@
       <c r="E2" s="453" t="s">
         <v>1250</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -8104,11 +8096,11 @@
       <c r="F3" s="455"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="460" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="460"/>
+      <c r="C4" s="460"/>
       <c r="D4" s="409" t="s">
         <v>1259</v>
       </c>
@@ -8118,9 +8110,9 @@
       <c r="F4" s="455"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
       <c r="D5" s="408" t="s">
         <v>1260</v>
       </c>
@@ -8130,9 +8122,9 @@
       <c r="F5" s="455"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460"/>
       <c r="D6" s="410" t="s">
         <v>1261</v>
       </c>
@@ -8142,11 +8134,11 @@
       <c r="F6" s="455"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="462" t="s">
+      <c r="A7" s="461" t="s">
         <v>1269</v>
       </c>
-      <c r="B7" s="462"/>
-      <c r="C7" s="462"/>
+      <c r="B7" s="461"/>
+      <c r="C7" s="461"/>
       <c r="D7" s="408" t="s">
         <v>1262</v>
       </c>
@@ -8156,9 +8148,9 @@
       <c r="F7" s="455"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="462"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
+      <c r="A8" s="461"/>
+      <c r="B8" s="461"/>
+      <c r="C8" s="461"/>
       <c r="D8" s="408" t="s">
         <v>1263</v>
       </c>
@@ -8168,9 +8160,9 @@
       <c r="F8" s="455"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="462"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
+      <c r="A9" s="461"/>
+      <c r="B9" s="461"/>
+      <c r="C9" s="461"/>
       <c r="D9" s="421" t="s">
         <v>1264</v>
       </c>
@@ -8190,8 +8182,8 @@
     <row r="11" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="C11" s="415"/>
       <c r="D11" s="407"/>
-      <c r="E11" s="465"/>
-      <c r="F11" s="465"/>
+      <c r="E11" s="464"/>
+      <c r="F11" s="464"/>
     </row>
     <row r="12" spans="1:6" s="414" customFormat="1" ht="9.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="419" t="s">
@@ -9581,7 +9573,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -9594,7 +9586,7 @@
       <c r="E2" s="456" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -9608,11 +9600,11 @@
       <c r="F3" s="456"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="460" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="460"/>
+      <c r="C4" s="460"/>
       <c r="D4" s="409" t="s">
         <v>1166</v>
       </c>
@@ -9622,39 +9614,39 @@
       <c r="F4" s="456"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
       <c r="D5" s="408"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460"/>
       <c r="D6" s="410"/>
       <c r="E6" s="456"/>
       <c r="F6" s="456"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="462" t="s">
+      <c r="A7" s="461" t="s">
         <v>1167</v>
       </c>
-      <c r="B7" s="462"/>
-      <c r="C7" s="462"/>
+      <c r="B7" s="461"/>
+      <c r="C7" s="461"/>
       <c r="D7" s="408"/>
       <c r="E7" s="456"/>
       <c r="F7" s="456"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="462"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
+      <c r="A8" s="461"/>
+      <c r="B8" s="461"/>
+      <c r="C8" s="461"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="462"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
+      <c r="A9" s="461"/>
+      <c r="B9" s="461"/>
+      <c r="C9" s="461"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -9796,7 +9788,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -9809,7 +9801,7 @@
       <c r="E2" s="457" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -9823,11 +9815,11 @@
       <c r="F3" s="457"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="460" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="460"/>
+      <c r="C4" s="460"/>
       <c r="D4" s="409" t="s">
         <v>1131</v>
       </c>
@@ -9837,9 +9829,9 @@
       <c r="F4" s="457"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
       <c r="D5" s="408" t="s">
         <v>1154</v>
       </c>
@@ -9848,9 +9840,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460"/>
       <c r="D6" s="410" t="s">
         <v>1155</v>
       </c>
@@ -9860,11 +9852,11 @@
       <c r="F6" s="457"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="462" t="s">
+      <c r="A7" s="461" t="s">
         <v>1164</v>
       </c>
-      <c r="B7" s="462"/>
-      <c r="C7" s="462"/>
+      <c r="B7" s="461"/>
+      <c r="C7" s="461"/>
       <c r="D7" s="408" t="s">
         <v>1156</v>
       </c>
@@ -9874,9 +9866,9 @@
       <c r="F7" s="457"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="462"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
+      <c r="A8" s="461"/>
+      <c r="B8" s="461"/>
+      <c r="C8" s="461"/>
       <c r="D8" s="408" t="s">
         <v>1157</v>
       </c>
@@ -9885,9 +9877,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="462"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
+      <c r="A9" s="461"/>
+      <c r="B9" s="461"/>
+      <c r="C9" s="461"/>
       <c r="D9" s="421" t="s">
         <v>1158</v>
       </c>
@@ -11301,7 +11293,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -11314,7 +11306,7 @@
       <c r="E2" s="456" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -11328,11 +11320,11 @@
       <c r="F3" s="456"/>
     </row>
     <row r="4" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="460" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="460"/>
+      <c r="C4" s="460"/>
       <c r="D4" s="409" t="s">
         <v>1140</v>
       </c>
@@ -11342,9 +11334,9 @@
       <c r="F4" s="456"/>
     </row>
     <row r="5" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
       <c r="D5" s="408" t="s">
         <v>1141</v>
       </c>
@@ -11353,9 +11345,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460"/>
       <c r="D6" s="410" t="s">
         <v>1142</v>
       </c>
@@ -11365,11 +11357,11 @@
       <c r="F6" s="456"/>
     </row>
     <row r="7" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="462" t="s">
+      <c r="A7" s="461" t="s">
         <v>1150</v>
       </c>
-      <c r="B7" s="462"/>
-      <c r="C7" s="462"/>
+      <c r="B7" s="461"/>
+      <c r="C7" s="461"/>
       <c r="D7" s="408" t="s">
         <v>1143</v>
       </c>
@@ -11379,9 +11371,9 @@
       <c r="F7" s="456"/>
     </row>
     <row r="8" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="462"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
+      <c r="A8" s="461"/>
+      <c r="B8" s="461"/>
+      <c r="C8" s="461"/>
       <c r="D8" s="408" t="s">
         <v>1144</v>
       </c>
@@ -11390,9 +11382,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="462"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
+      <c r="A9" s="461"/>
+      <c r="B9" s="461"/>
+      <c r="C9" s="461"/>
     </row>
     <row r="10" spans="1:7" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -12833,7 +12825,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -12846,7 +12838,7 @@
       <c r="E2" s="456" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -12860,11 +12852,11 @@
       <c r="F3" s="456"/>
     </row>
     <row r="4" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="460" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="460"/>
+      <c r="C4" s="460"/>
       <c r="D4" s="409" t="s">
         <v>1136</v>
       </c>
@@ -12874,39 +12866,39 @@
       <c r="F4" s="456"/>
     </row>
     <row r="5" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
       <c r="D5" s="408"/>
     </row>
     <row r="6" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460"/>
       <c r="D6" s="410"/>
       <c r="E6" s="456"/>
       <c r="F6" s="456"/>
     </row>
     <row r="7" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="462" t="s">
+      <c r="A7" s="461" t="s">
         <v>1265</v>
       </c>
-      <c r="B7" s="462"/>
-      <c r="C7" s="462"/>
+      <c r="B7" s="461"/>
+      <c r="C7" s="461"/>
       <c r="D7" s="408"/>
       <c r="E7" s="456"/>
       <c r="F7" s="456"/>
     </row>
     <row r="8" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="462"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
+      <c r="A8" s="461"/>
+      <c r="B8" s="461"/>
+      <c r="C8" s="461"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:7" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="462"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
+      <c r="A9" s="461"/>
+      <c r="B9" s="461"/>
+      <c r="C9" s="461"/>
     </row>
     <row r="10" spans="1:7" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -13222,7 +13214,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -13235,7 +13227,7 @@
       <c r="E2" s="456" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -13249,11 +13241,11 @@
       <c r="F3" s="456"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="460" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="460"/>
+      <c r="C4" s="460"/>
       <c r="D4" s="409" t="s">
         <v>1130</v>
       </c>
@@ -13263,9 +13255,9 @@
       <c r="F4" s="456"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
       <c r="D5" s="408" t="s">
         <v>910</v>
       </c>
@@ -13274,9 +13266,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460"/>
       <c r="D6" s="410" t="s">
         <v>1129</v>
       </c>
@@ -13286,11 +13278,11 @@
       <c r="F6" s="456"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="462" t="s">
+      <c r="A7" s="461" t="s">
         <v>1266</v>
       </c>
-      <c r="B7" s="462"/>
-      <c r="C7" s="462"/>
+      <c r="B7" s="461"/>
+      <c r="C7" s="461"/>
       <c r="D7" s="408" t="s">
         <v>1128</v>
       </c>
@@ -13300,15 +13292,15 @@
       <c r="F7" s="456"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="462"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
+      <c r="A8" s="461"/>
+      <c r="B8" s="461"/>
+      <c r="C8" s="461"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="462"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
+      <c r="A9" s="461"/>
+      <c r="B9" s="461"/>
+      <c r="C9" s="461"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -19518,7 +19510,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -19542,7 +19534,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -19555,7 +19547,7 @@
       <c r="E2" s="453" t="s">
         <v>1320</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -19569,11 +19561,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="463" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
       <c r="D4" s="453" t="s">
         <v>1357</v>
       </c>
@@ -19583,39 +19575,39 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
       <c r="D5" s="408"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
       <c r="D6" s="410"/>
       <c r="E6" s="453"/>
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="462" t="s">
+      <c r="A7" s="463" t="s">
         <v>1298</v>
       </c>
-      <c r="B7" s="462"/>
-      <c r="C7" s="462"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="408"/>
       <c r="E7" s="453"/>
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="462"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="462"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -29275,7 +29267,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -29288,7 +29280,7 @@
       <c r="E2" s="453" t="s">
         <v>1305</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -29302,11 +29294,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="460" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="460"/>
+      <c r="C4" s="460"/>
       <c r="D4" s="453" t="s">
         <v>1352</v>
       </c>
@@ -29316,9 +29308,9 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
       <c r="D5" s="453" t="s">
         <v>1353</v>
       </c>
@@ -29327,9 +29319,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460"/>
       <c r="D6" s="453" t="s">
         <v>1336</v>
       </c>
@@ -29339,11 +29331,11 @@
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="462" t="s">
+      <c r="A7" s="461" t="s">
         <v>1299</v>
       </c>
-      <c r="B7" s="462"/>
-      <c r="C7" s="462"/>
+      <c r="B7" s="461"/>
+      <c r="C7" s="461"/>
       <c r="D7" s="453" t="s">
         <v>1354</v>
       </c>
@@ -29353,9 +29345,9 @@
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="462"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
+      <c r="A8" s="461"/>
+      <c r="B8" s="461"/>
+      <c r="C8" s="461"/>
       <c r="D8" s="453" t="s">
         <v>1355</v>
       </c>
@@ -29364,9 +29356,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="462"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
+      <c r="A9" s="461"/>
+      <c r="B9" s="461"/>
+      <c r="C9" s="461"/>
       <c r="D9" s="453" t="s">
         <v>1165</v>
       </c>
@@ -37094,7 +37086,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -37118,7 +37110,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -37131,7 +37123,7 @@
       <c r="E2" s="453" t="s">
         <v>1325</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -37145,11 +37137,11 @@
       <c r="F3" s="455"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="463" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
       <c r="D4" s="453" t="s">
         <v>1345</v>
       </c>
@@ -37159,9 +37151,9 @@
       <c r="F4" s="455"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
       <c r="D5" s="453" t="s">
         <v>1140</v>
       </c>
@@ -37171,9 +37163,9 @@
       <c r="F5" s="455"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
       <c r="D6" s="453" t="s">
         <v>1346</v>
       </c>
@@ -37183,11 +37175,11 @@
       <c r="F6" s="455"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="462" t="s">
+      <c r="A7" s="463" t="s">
         <v>1300</v>
       </c>
-      <c r="B7" s="462"/>
-      <c r="C7" s="462"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="453" t="s">
         <v>1347</v>
       </c>
@@ -37197,9 +37189,9 @@
       <c r="F7" s="455"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="462"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="453" t="s">
         <v>1348</v>
       </c>
@@ -37209,9 +37201,9 @@
       <c r="F8" s="455"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="462"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
       <c r="D9" s="453" t="s">
         <v>1349</v>
       </c>
@@ -41351,7 +41343,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41812,35 +41804,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B2" s="460" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44">
@@ -41849,10 +41812,10 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="12" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -41876,7 +41839,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -41889,7 +41852,7 @@
       <c r="E2" s="453" t="s">
         <v>1320</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -41903,11 +41866,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="463" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
       <c r="D4" s="453" t="s">
         <v>1342</v>
       </c>
@@ -41917,39 +41880,39 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
       <c r="D5" s="408"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
       <c r="D6" s="410"/>
       <c r="E6" s="453"/>
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="462" t="s">
+      <c r="A7" s="463" t="s">
         <v>1301</v>
       </c>
-      <c r="B7" s="462"/>
-      <c r="C7" s="462"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="408"/>
       <c r="E7" s="453"/>
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="462"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="462"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -42016,7 +41979,7 @@
         <v>896</v>
       </c>
       <c r="E14" s="416" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="F14" s="416" t="s">
         <v>14</v>
@@ -42033,7 +41996,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="416" t="s">
-        <v>1465</v>
+        <v>1447</v>
       </c>
       <c r="E15" s="416" t="s">
         <v>957</v>
@@ -42053,7 +42016,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="416" t="s">
-        <v>1465</v>
+        <v>1447</v>
       </c>
       <c r="E16" s="416" t="s">
         <v>1234</v>
@@ -42076,7 +42039,7 @@
         <v>481</v>
       </c>
       <c r="E17" s="416" t="s">
-        <v>1474</v>
+        <v>1456</v>
       </c>
       <c r="F17" s="416" t="s">
         <v>100</v>
@@ -42116,7 +42079,7 @@
         <v>481</v>
       </c>
       <c r="E19" s="416" t="s">
-        <v>1475</v>
+        <v>1457</v>
       </c>
       <c r="F19" s="416" t="s">
         <v>100</v>
@@ -42156,7 +42119,7 @@
         <v>59</v>
       </c>
       <c r="E21" s="416" t="s">
-        <v>1476</v>
+        <v>1458</v>
       </c>
       <c r="F21" s="416" t="s">
         <v>100</v>
@@ -42244,7 +42207,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="417" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="B26" s="416" t="s">
         <v>944</v>
@@ -42256,7 +42219,7 @@
         <v>835</v>
       </c>
       <c r="E26" s="416" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="F26" s="416" t="s">
         <v>19</v>
@@ -42264,7 +42227,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="417" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="B27" s="416" t="s">
         <v>944</v>
@@ -42276,7 +42239,7 @@
         <v>835</v>
       </c>
       <c r="E27" s="416" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="F27" s="416" t="s">
         <v>19</v>
@@ -42296,7 +42259,7 @@
         <v>159</v>
       </c>
       <c r="E28" s="416" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="F28" s="416" t="s">
         <v>100</v>
@@ -42336,7 +42299,7 @@
         <v>767</v>
       </c>
       <c r="E30" s="416" t="s">
-        <v>1477</v>
+        <v>1459</v>
       </c>
       <c r="F30" s="416" t="s">
         <v>100</v>
@@ -42362,13 +42325,13 @@
   <sheetPr codeName="Sheet46">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -42384,7 +42347,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="411" t="s">
-        <v>1490</v>
+        <v>1472</v>
       </c>
       <c r="B1" s="412"/>
       <c r="C1" s="413"/>
@@ -42392,7 +42355,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -42405,7 +42368,7 @@
       <c r="E2" s="453" t="s">
         <v>1305</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -42419,11 +42382,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="463" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
       <c r="D4" s="453" t="s">
         <v>1335</v>
       </c>
@@ -42433,9 +42396,9 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
       <c r="D5" s="453" t="s">
         <v>1336</v>
       </c>
@@ -42444,9 +42407,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
       <c r="D6" s="453" t="s">
         <v>1337</v>
       </c>
@@ -42456,11 +42419,11 @@
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="462" t="s">
+      <c r="A7" s="463" t="s">
         <v>1302</v>
       </c>
-      <c r="B7" s="462"/>
-      <c r="C7" s="462"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="453" t="s">
         <v>1338</v>
       </c>
@@ -42470,9 +42433,9 @@
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="462"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="453" t="s">
         <v>1339</v>
       </c>
@@ -42481,9 +42444,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="462"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
       <c r="D9" s="453" t="s">
         <v>1340</v>
       </c>
@@ -42525,319 +42488,319 @@
     </row>
     <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="417" t="s">
-        <v>1194</v>
+        <v>1025</v>
       </c>
       <c r="B13" s="416" t="s">
-        <v>945</v>
+        <v>1395</v>
       </c>
       <c r="C13" s="418">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="416" t="s">
-        <v>767</v>
+        <v>64</v>
       </c>
       <c r="E13" s="416" t="s">
-        <v>1478</v>
+        <v>938</v>
       </c>
       <c r="F13" s="416" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="417" t="s">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="B14" s="416" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C14" s="418">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="416" t="s">
-        <v>481</v>
+        <v>896</v>
       </c>
       <c r="E14" s="416" t="s">
-        <v>1479</v>
+        <v>1410</v>
       </c>
       <c r="F14" s="416" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="417" t="s">
-        <v>1201</v>
+        <v>1081</v>
       </c>
       <c r="B15" s="416" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C15" s="418">
         <v>1</v>
       </c>
       <c r="D15" s="416" t="s">
-        <v>481</v>
+        <v>1447</v>
       </c>
       <c r="E15" s="416" t="s">
-        <v>1367</v>
+        <v>957</v>
       </c>
       <c r="F15" s="416" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="417" t="s">
-        <v>1030</v>
+        <v>1082</v>
       </c>
       <c r="B16" s="416" t="s">
-        <v>1215</v>
+        <v>939</v>
       </c>
       <c r="C16" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="416" t="s">
-        <v>936</v>
+        <v>767</v>
       </c>
       <c r="E16" s="416" t="s">
-        <v>948</v>
+        <v>1234</v>
       </c>
       <c r="F16" s="416" t="s">
-        <v>432</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="417" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B17" s="416" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="C17" s="418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="416" t="s">
-        <v>835</v>
+        <v>481</v>
       </c>
       <c r="E17" s="416" t="s">
-        <v>1430</v>
+        <v>1456</v>
       </c>
       <c r="F17" s="416" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="417" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B18" s="416" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="C18" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="416" t="s">
-        <v>1393</v>
+        <v>481</v>
       </c>
       <c r="E18" s="416" t="s">
-        <v>982</v>
+        <v>940</v>
       </c>
       <c r="F18" s="416" t="s">
-        <v>1480</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="417" t="s">
-        <v>1033</v>
+        <v>1083</v>
       </c>
       <c r="B19" s="416" t="s">
-        <v>1203</v>
+        <v>941</v>
       </c>
       <c r="C19" s="418">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="416" t="s">
-        <v>64</v>
+        <v>481</v>
       </c>
       <c r="E19" s="416" t="s">
-        <v>953</v>
+        <v>1457</v>
       </c>
       <c r="F19" s="416" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="417" t="s">
-        <v>1402</v>
+        <v>1084</v>
       </c>
       <c r="B20" s="416" t="s">
-        <v>1403</v>
+        <v>941</v>
       </c>
       <c r="C20" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" s="416" t="s">
-        <v>34</v>
+        <v>481</v>
       </c>
       <c r="E20" s="416" t="s">
-        <v>938</v>
+        <v>1361</v>
       </c>
       <c r="F20" s="416" t="s">
-        <v>1442</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="417" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="B21" s="416" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="C21" s="418">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="416" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E21" s="416" t="s">
-        <v>955</v>
+        <v>1458</v>
       </c>
       <c r="F21" s="416" t="s">
-        <v>1434</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="417" t="s">
-        <v>1036</v>
+        <v>1087</v>
       </c>
       <c r="B22" s="416" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="C22" s="418">
         <v>1</v>
       </c>
       <c r="D22" s="416" t="s">
-        <v>754</v>
+        <v>59</v>
       </c>
       <c r="E22" s="416" t="s">
-        <v>957</v>
+        <v>1363</v>
       </c>
       <c r="F22" s="416" t="s">
-        <v>1400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="417" t="s">
-        <v>1237</v>
+        <v>1088</v>
       </c>
       <c r="B23" s="416" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="C23" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="416" t="s">
-        <v>64</v>
+        <v>767</v>
       </c>
       <c r="E23" s="416" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="F23" s="416" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="417" t="s">
-        <v>1238</v>
+        <v>1089</v>
       </c>
       <c r="B24" s="416" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="C24" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="416" t="s">
-        <v>631</v>
+        <v>1396</v>
       </c>
       <c r="E24" s="416" t="s">
-        <v>1091</v>
+        <v>960</v>
       </c>
       <c r="F24" s="416" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="417" t="s">
-        <v>1038</v>
+        <v>1090</v>
       </c>
       <c r="B25" s="416" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="C25" s="418">
         <v>1</v>
       </c>
       <c r="D25" s="416" t="s">
-        <v>1468</v>
+        <v>1396</v>
       </c>
       <c r="E25" s="416" t="s">
-        <v>960</v>
+        <v>1058</v>
       </c>
       <c r="F25" s="416" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="417" t="s">
-        <v>1178</v>
+        <v>1411</v>
       </c>
       <c r="B26" s="416" t="s">
-        <v>1216</v>
+        <v>944</v>
       </c>
       <c r="C26" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="416" t="s">
-        <v>1470</v>
+        <v>835</v>
       </c>
       <c r="E26" s="416" t="s">
-        <v>966</v>
+        <v>1412</v>
       </c>
       <c r="F26" s="416" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="417" t="s">
-        <v>1180</v>
+        <v>1413</v>
       </c>
       <c r="B27" s="416" t="s">
-        <v>1216</v>
+        <v>944</v>
       </c>
       <c r="C27" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="416" t="s">
-        <v>1470</v>
+        <v>835</v>
       </c>
       <c r="E27" s="416" t="s">
-        <v>962</v>
+        <v>1414</v>
       </c>
       <c r="F27" s="416" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="417" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="B28" s="416" t="s">
-        <v>1239</v>
+        <v>945</v>
       </c>
       <c r="C28" s="418">
         <v>2</v>
       </c>
       <c r="D28" s="416" t="s">
-        <v>765</v>
+        <v>159</v>
       </c>
       <c r="E28" s="416" t="s">
-        <v>1481</v>
+        <v>1409</v>
       </c>
       <c r="F28" s="416" t="s">
         <v>100</v>
@@ -42845,19 +42808,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="417" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="B29" s="416" t="s">
-        <v>1239</v>
+        <v>945</v>
       </c>
       <c r="C29" s="418">
         <v>1</v>
       </c>
       <c r="D29" s="416" t="s">
-        <v>765</v>
+        <v>159</v>
       </c>
       <c r="E29" s="416" t="s">
-        <v>1482</v>
+        <v>1195</v>
       </c>
       <c r="F29" s="416" t="s">
         <v>100</v>
@@ -42865,19 +42828,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="417" t="s">
-        <v>1220</v>
+        <v>1192</v>
       </c>
       <c r="B30" s="416" t="s">
-        <v>1239</v>
+        <v>945</v>
       </c>
       <c r="C30" s="418">
         <v>2</v>
       </c>
       <c r="D30" s="416" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E30" s="416" t="s">
-        <v>1360</v>
+        <v>1459</v>
       </c>
       <c r="F30" s="416" t="s">
         <v>100</v>
@@ -42885,19 +42848,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="417" t="s">
-        <v>1222</v>
+        <v>1194</v>
       </c>
       <c r="B31" s="416" t="s">
-        <v>1239</v>
+        <v>945</v>
       </c>
       <c r="C31" s="418">
         <v>1</v>
       </c>
       <c r="D31" s="416" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E31" s="416" t="s">
-        <v>1231</v>
+        <v>1460</v>
       </c>
       <c r="F31" s="416" t="s">
         <v>100</v>
@@ -42905,19 +42868,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="417" t="s">
-        <v>1223</v>
+        <v>1200</v>
       </c>
       <c r="B32" s="416" t="s">
-        <v>1239</v>
+        <v>945</v>
       </c>
       <c r="C32" s="418">
         <v>2</v>
       </c>
       <c r="D32" s="416" t="s">
-        <v>765</v>
+        <v>481</v>
       </c>
       <c r="E32" s="416" t="s">
-        <v>1483</v>
+        <v>1461</v>
       </c>
       <c r="F32" s="416" t="s">
         <v>100</v>
@@ -42925,19 +42888,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="417" t="s">
-        <v>1225</v>
+        <v>1201</v>
       </c>
       <c r="B33" s="416" t="s">
-        <v>1239</v>
+        <v>945</v>
       </c>
       <c r="C33" s="418">
         <v>1</v>
       </c>
       <c r="D33" s="416" t="s">
-        <v>765</v>
+        <v>481</v>
       </c>
       <c r="E33" s="416" t="s">
-        <v>1234</v>
+        <v>1367</v>
       </c>
       <c r="F33" s="416" t="s">
         <v>100</v>
@@ -42945,327 +42908,339 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="417" t="s">
-        <v>1095</v>
+        <v>1030</v>
       </c>
       <c r="B34" s="416" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="C34" s="418">
         <v>3</v>
       </c>
       <c r="D34" s="416" t="s">
-        <v>34</v>
+        <v>936</v>
       </c>
       <c r="E34" s="416" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="F34" s="416" t="s">
-        <v>1434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="417" t="s">
-        <v>1096</v>
+        <v>1031</v>
       </c>
       <c r="B35" s="416" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="C35" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="416" t="s">
-        <v>34</v>
+        <v>835</v>
       </c>
       <c r="E35" s="416" t="s">
-        <v>962</v>
+        <v>1416</v>
       </c>
       <c r="F35" s="416" t="s">
-        <v>1434</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="417" t="s">
-        <v>1097</v>
+        <v>1032</v>
       </c>
       <c r="B36" s="416" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="C36" s="418">
         <v>3</v>
       </c>
       <c r="D36" s="416" t="s">
-        <v>64</v>
+        <v>1393</v>
       </c>
       <c r="E36" s="416" t="s">
-        <v>966</v>
+        <v>982</v>
       </c>
       <c r="F36" s="416" t="s">
-        <v>178</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="417" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="B37" s="416" t="s">
-        <v>967</v>
+        <v>1203</v>
       </c>
       <c r="C37" s="418">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="416" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="E37" s="416" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="F37" s="416" t="s">
-        <v>929</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="417" t="s">
-        <v>1044</v>
+        <v>1401</v>
       </c>
       <c r="B38" s="416" t="s">
-        <v>967</v>
+        <v>1402</v>
       </c>
       <c r="C38" s="418">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D38" s="416" t="s">
+        <v>34</v>
       </c>
       <c r="E38" s="416" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="F38" s="416" t="s">
-        <v>24</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="417" t="s">
-        <v>1185</v>
+        <v>1094</v>
       </c>
       <c r="B39" s="416" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="C39" s="418">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D39" s="416" t="s">
+        <v>34</v>
       </c>
       <c r="E39" s="416" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="F39" s="416" t="s">
-        <v>24</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="417" t="s">
-        <v>1187</v>
+        <v>1036</v>
       </c>
       <c r="B40" s="416" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="C40" s="418">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="416" t="s">
-        <v>184</v>
+        <v>754</v>
       </c>
       <c r="E40" s="416" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="F40" s="416" t="s">
-        <v>1484</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="417" t="s">
-        <v>1485</v>
+        <v>1237</v>
       </c>
       <c r="B41" s="416" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="C41" s="418">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D41" s="416" t="s">
+        <v>64</v>
       </c>
       <c r="E41" s="416" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="F41" s="416" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="417" t="s">
-        <v>1098</v>
+        <v>1238</v>
       </c>
       <c r="B42" s="416" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="C42" s="418">
         <v>3</v>
       </c>
       <c r="D42" s="416" t="s">
-        <v>756</v>
+        <v>631</v>
       </c>
       <c r="E42" s="416" t="s">
-        <v>970</v>
+        <v>1091</v>
       </c>
       <c r="F42" s="416" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="417" t="s">
-        <v>1099</v>
+        <v>1038</v>
       </c>
       <c r="B43" s="416" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="C43" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" s="416" t="s">
-        <v>414</v>
+        <v>1450</v>
       </c>
       <c r="E43" s="416" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="F43" s="416" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="417" t="s">
-        <v>1404</v>
+        <v>1178</v>
       </c>
       <c r="B44" s="416" t="s">
-        <v>1405</v>
+        <v>1216</v>
       </c>
       <c r="C44" s="418">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D44" s="416" t="s">
+        <v>1452</v>
       </c>
       <c r="E44" s="416" t="s">
-        <v>1234</v>
+        <v>966</v>
       </c>
       <c r="F44" s="416" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="417" t="s">
-        <v>1047</v>
+        <v>1180</v>
       </c>
       <c r="B45" s="416" t="s">
-        <v>975</v>
+        <v>1216</v>
       </c>
       <c r="C45" s="418">
         <v>3</v>
       </c>
       <c r="D45" s="416" t="s">
-        <v>896</v>
+        <v>1452</v>
       </c>
       <c r="E45" s="416" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="F45" s="416" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="417" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="B46" s="416" t="s">
-        <v>976</v>
+        <v>1239</v>
       </c>
       <c r="C46" s="418">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="416" t="s">
-        <v>896</v>
+        <v>765</v>
       </c>
       <c r="E46" s="416" t="s">
-        <v>971</v>
+        <v>1463</v>
       </c>
       <c r="F46" s="416" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="417" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="B47" s="416" t="s">
-        <v>978</v>
+        <v>1239</v>
       </c>
       <c r="C47" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" s="416" t="s">
-        <v>682</v>
+        <v>765</v>
       </c>
       <c r="E47" s="416" t="s">
-        <v>938</v>
+        <v>1464</v>
       </c>
       <c r="F47" s="416" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="417" t="s">
-        <v>1101</v>
+        <v>1220</v>
       </c>
       <c r="B48" s="416" t="s">
-        <v>979</v>
+        <v>1239</v>
       </c>
       <c r="C48" s="418">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" s="416" t="s">
-        <v>1242</v>
+        <v>765</v>
       </c>
       <c r="E48" s="416" t="s">
-        <v>977</v>
+        <v>1360</v>
       </c>
       <c r="F48" s="416" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="417" t="s">
-        <v>1103</v>
+        <v>1222</v>
       </c>
       <c r="B49" s="416" t="s">
-        <v>981</v>
+        <v>1239</v>
       </c>
       <c r="C49" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" s="416" t="s">
-        <v>481</v>
+        <v>765</v>
       </c>
       <c r="E49" s="416" t="s">
-        <v>952</v>
+        <v>1231</v>
       </c>
       <c r="F49" s="416" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="417" t="s">
-        <v>1104</v>
+        <v>1223</v>
       </c>
       <c r="B50" s="416" t="s">
-        <v>983</v>
+        <v>1239</v>
       </c>
       <c r="C50" s="418">
         <v>2</v>
       </c>
       <c r="D50" s="416" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E50" s="416" t="s">
-        <v>1227</v>
+        <v>1465</v>
       </c>
       <c r="F50" s="416" t="s">
         <v>100</v>
@@ -43273,19 +43248,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="417" t="s">
-        <v>1105</v>
+        <v>1225</v>
       </c>
       <c r="B51" s="416" t="s">
-        <v>983</v>
+        <v>1239</v>
       </c>
       <c r="C51" s="418">
         <v>1</v>
       </c>
       <c r="D51" s="416" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E51" s="416" t="s">
-        <v>1058</v>
+        <v>1234</v>
       </c>
       <c r="F51" s="416" t="s">
         <v>100</v>
@@ -43293,233 +43268,227 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="417" t="s">
-        <v>1411</v>
+        <v>1095</v>
       </c>
       <c r="B52" s="416" t="s">
-        <v>1486</v>
+        <v>1226</v>
       </c>
       <c r="C52" s="418">
         <v>3</v>
       </c>
       <c r="D52" s="416" t="s">
-        <v>414</v>
+        <v>34</v>
       </c>
       <c r="E52" s="416" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="F52" s="416" t="s">
-        <v>66</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="417" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="B53" s="416" t="s">
-        <v>1487</v>
+        <v>961</v>
       </c>
       <c r="C53" s="418">
         <v>3</v>
       </c>
       <c r="D53" s="416" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E53" s="416" t="s">
-        <v>986</v>
+        <v>962</v>
       </c>
       <c r="F53" s="416" t="s">
-        <v>432</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="417" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="B54" s="416" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="C54" s="418">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" s="416" t="s">
-        <v>912</v>
+        <v>64</v>
       </c>
       <c r="E54" s="416" t="s">
-        <v>1231</v>
+        <v>966</v>
       </c>
       <c r="F54" s="416" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="417" t="s">
-        <v>1406</v>
+        <v>1043</v>
       </c>
       <c r="B55" s="416" t="s">
-        <v>1407</v>
+        <v>967</v>
       </c>
       <c r="C55" s="418">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" s="416" t="s">
         <v>184</v>
       </c>
       <c r="E55" s="416" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="F55" s="416" t="s">
-        <v>223</v>
+        <v>929</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="417" t="s">
-        <v>1232</v>
+        <v>1044</v>
       </c>
       <c r="B56" s="416" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="C56" s="418">
-        <v>3</v>
-      </c>
-      <c r="D56" s="416" t="s">
-        <v>628</v>
+        <v>1</v>
       </c>
       <c r="E56" s="416" t="s">
-        <v>1408</v>
+        <v>947</v>
       </c>
       <c r="F56" s="416" t="s">
-        <v>1249</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="417" t="s">
-        <v>1108</v>
+        <v>1185</v>
       </c>
       <c r="B57" s="416" t="s">
-        <v>992</v>
+        <v>967</v>
       </c>
       <c r="C57" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" s="416" t="s">
-        <v>993</v>
+        <v>940</v>
       </c>
       <c r="F57" s="416" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="417" t="s">
-        <v>1109</v>
+        <v>1187</v>
       </c>
       <c r="B58" s="416" t="s">
-        <v>994</v>
+        <v>967</v>
       </c>
       <c r="C58" s="418">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" s="416" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="E58" s="416" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="F58" s="416" t="s">
-        <v>293</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="417" t="s">
-        <v>1110</v>
+        <v>1467</v>
       </c>
       <c r="B59" s="416" t="s">
-        <v>995</v>
+        <v>967</v>
       </c>
       <c r="C59" s="418">
-        <v>3</v>
-      </c>
-      <c r="D59" s="416" t="s">
-        <v>414</v>
+        <v>1</v>
       </c>
       <c r="E59" s="416" t="s">
-        <v>996</v>
+        <v>947</v>
       </c>
       <c r="F59" s="416" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="417" t="s">
-        <v>1398</v>
+        <v>1098</v>
       </c>
       <c r="B60" s="416" t="s">
-        <v>1399</v>
+        <v>969</v>
       </c>
       <c r="C60" s="418">
         <v>3</v>
       </c>
+      <c r="D60" s="416" t="s">
+        <v>756</v>
+      </c>
       <c r="E60" s="416" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F60" s="416" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="417" t="s">
-        <v>1488</v>
+        <v>1099</v>
       </c>
       <c r="B61" s="416" t="s">
-        <v>1489</v>
+        <v>972</v>
       </c>
       <c r="C61" s="418">
         <v>3</v>
       </c>
       <c r="D61" s="416" t="s">
-        <v>896</v>
+        <v>414</v>
       </c>
       <c r="E61" s="416" t="s">
-        <v>948</v>
+        <v>971</v>
       </c>
       <c r="F61" s="416" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="417" t="s">
-        <v>1111</v>
+        <v>1403</v>
       </c>
       <c r="B62" s="416" t="s">
-        <v>1112</v>
+        <v>1404</v>
       </c>
       <c r="C62" s="418">
-        <v>3</v>
-      </c>
-      <c r="D62" s="416" t="s">
-        <v>682</v>
+        <v>1</v>
       </c>
       <c r="E62" s="416" t="s">
-        <v>970</v>
+        <v>1234</v>
       </c>
       <c r="F62" s="416" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="417" t="s">
-        <v>1113</v>
+        <v>1047</v>
       </c>
       <c r="B63" s="416" t="s">
-        <v>997</v>
+        <v>975</v>
       </c>
       <c r="C63" s="418">
         <v>3</v>
       </c>
       <c r="D63" s="416" t="s">
-        <v>476</v>
+        <v>896</v>
       </c>
       <c r="E63" s="416" t="s">
-        <v>952</v>
+        <v>974</v>
       </c>
       <c r="F63" s="416" t="s">
         <v>189</v>
@@ -43527,59 +43496,59 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="417" t="s">
-        <v>1114</v>
+        <v>1048</v>
       </c>
       <c r="B64" s="416" t="s">
-        <v>1212</v>
+        <v>976</v>
       </c>
       <c r="C64" s="418">
         <v>3</v>
       </c>
       <c r="D64" s="416" t="s">
-        <v>59</v>
+        <v>896</v>
       </c>
       <c r="E64" s="416" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="F64" s="416" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="417" t="s">
-        <v>1116</v>
+        <v>1049</v>
       </c>
       <c r="B65" s="416" t="s">
-        <v>998</v>
+        <v>978</v>
       </c>
       <c r="C65" s="418">
         <v>3</v>
       </c>
       <c r="D65" s="416" t="s">
-        <v>1466</v>
+        <v>682</v>
       </c>
       <c r="E65" s="416" t="s">
-        <v>996</v>
+        <v>938</v>
       </c>
       <c r="F65" s="416" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="417" t="s">
-        <v>1118</v>
+        <v>1101</v>
       </c>
       <c r="B66" s="416" t="s">
-        <v>1000</v>
+        <v>979</v>
       </c>
       <c r="C66" s="418">
         <v>3</v>
       </c>
       <c r="D66" s="416" t="s">
-        <v>166</v>
+        <v>1242</v>
       </c>
       <c r="E66" s="416" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F66" s="416" t="s">
         <v>189</v>
@@ -43587,21 +43556,375 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="417" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
       <c r="B67" s="416" t="s">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C67" s="418">
         <v>3</v>
       </c>
       <c r="D67" s="416" t="s">
+        <v>481</v>
+      </c>
+      <c r="E67" s="416" t="s">
+        <v>952</v>
+      </c>
+      <c r="F67" s="416" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="417" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B68" s="416" t="s">
+        <v>983</v>
+      </c>
+      <c r="C68" s="418">
+        <v>2</v>
+      </c>
+      <c r="D68" s="416" t="s">
+        <v>767</v>
+      </c>
+      <c r="E68" s="416" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F68" s="416" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="417" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B69" s="416" t="s">
+        <v>983</v>
+      </c>
+      <c r="C69" s="418">
+        <v>1</v>
+      </c>
+      <c r="D69" s="416" t="s">
+        <v>767</v>
+      </c>
+      <c r="E69" s="416" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F69" s="416" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="417" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B70" s="416" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C70" s="418">
+        <v>3</v>
+      </c>
+      <c r="D70" s="416" t="s">
+        <v>414</v>
+      </c>
+      <c r="E70" s="416" t="s">
+        <v>970</v>
+      </c>
+      <c r="F70" s="416" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="417" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B71" s="416" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C71" s="418">
+        <v>3</v>
+      </c>
+      <c r="D71" s="416" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="416" t="s">
+        <v>986</v>
+      </c>
+      <c r="F71" s="416" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="417" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B72" s="416" t="s">
+        <v>987</v>
+      </c>
+      <c r="C72" s="418">
+        <v>1</v>
+      </c>
+      <c r="D72" s="416" t="s">
+        <v>912</v>
+      </c>
+      <c r="E72" s="416" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F72" s="416" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="417" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B73" s="416" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C73" s="418">
+        <v>3</v>
+      </c>
+      <c r="D73" s="416" t="s">
         <v>184</v>
       </c>
-      <c r="E67" s="416" t="s">
+      <c r="E73" s="416" t="s">
+        <v>966</v>
+      </c>
+      <c r="F73" s="416" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="417" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B74" s="416" t="s">
+        <v>989</v>
+      </c>
+      <c r="C74" s="418">
+        <v>3</v>
+      </c>
+      <c r="D74" s="416" t="s">
+        <v>628</v>
+      </c>
+      <c r="E74" s="416" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F74" s="416" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="417" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B75" s="416" t="s">
+        <v>992</v>
+      </c>
+      <c r="C75" s="418">
+        <v>3</v>
+      </c>
+      <c r="E75" s="416" t="s">
+        <v>993</v>
+      </c>
+      <c r="F75" s="416" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="417" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B76" s="416" t="s">
+        <v>994</v>
+      </c>
+      <c r="C76" s="418">
+        <v>3</v>
+      </c>
+      <c r="D76" s="416" t="s">
+        <v>166</v>
+      </c>
+      <c r="E76" s="416" t="s">
+        <v>977</v>
+      </c>
+      <c r="F76" s="416" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="417" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B77" s="416" t="s">
+        <v>995</v>
+      </c>
+      <c r="C77" s="418">
+        <v>3</v>
+      </c>
+      <c r="D77" s="416" t="s">
+        <v>414</v>
+      </c>
+      <c r="E77" s="416" t="s">
+        <v>996</v>
+      </c>
+      <c r="F77" s="416" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="417" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B78" s="416" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C78" s="418">
+        <v>3</v>
+      </c>
+      <c r="E78" s="416" t="s">
+        <v>971</v>
+      </c>
+      <c r="F78" s="416" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="417" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B79" s="416" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C79" s="418">
+        <v>3</v>
+      </c>
+      <c r="D79" s="416" t="s">
+        <v>896</v>
+      </c>
+      <c r="E79" s="416" t="s">
+        <v>948</v>
+      </c>
+      <c r="F79" s="416" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="417" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B80" s="416" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C80" s="418">
+        <v>3</v>
+      </c>
+      <c r="D80" s="416" t="s">
+        <v>682</v>
+      </c>
+      <c r="E80" s="416" t="s">
+        <v>970</v>
+      </c>
+      <c r="F80" s="416" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="417" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B81" s="416" t="s">
+        <v>997</v>
+      </c>
+      <c r="C81" s="418">
+        <v>3</v>
+      </c>
+      <c r="D81" s="416" t="s">
+        <v>476</v>
+      </c>
+      <c r="E81" s="416" t="s">
+        <v>952</v>
+      </c>
+      <c r="F81" s="416" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="417" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B82" s="416" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C82" s="418">
+        <v>3</v>
+      </c>
+      <c r="D82" s="416" t="s">
+        <v>59</v>
+      </c>
+      <c r="E82" s="416" t="s">
+        <v>982</v>
+      </c>
+      <c r="F82" s="416" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="417" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B83" s="416" t="s">
+        <v>998</v>
+      </c>
+      <c r="C83" s="418">
+        <v>3</v>
+      </c>
+      <c r="D83" s="416" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E83" s="416" t="s">
+        <v>996</v>
+      </c>
+      <c r="F83" s="416" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="417" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B84" s="416" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C84" s="418">
+        <v>3</v>
+      </c>
+      <c r="D84" s="416" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" s="416" t="s">
+        <v>982</v>
+      </c>
+      <c r="F84" s="416" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="417" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B85" s="416" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C85" s="418">
+        <v>3</v>
+      </c>
+      <c r="D85" s="416" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="416" t="s">
         <v>938</v>
       </c>
-      <c r="F67" s="416" t="s">
+      <c r="F85" s="416" t="s">
         <v>119</v>
       </c>
     </row>
@@ -43631,7 +43954,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -43647,7 +43970,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="411" t="s">
-        <v>1473</v>
+        <v>1455</v>
       </c>
       <c r="B1" s="412"/>
       <c r="C1" s="413"/>
@@ -43655,7 +43978,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -43668,7 +43991,7 @@
       <c r="E2" s="453" t="s">
         <v>1325</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -43682,11 +44005,11 @@
       <c r="F3" s="455"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="463" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
       <c r="D4" s="453" t="s">
         <v>1327</v>
       </c>
@@ -43696,9 +44019,9 @@
       <c r="F4" s="455"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
       <c r="D5" s="453" t="s">
         <v>1328</v>
       </c>
@@ -43708,9 +44031,9 @@
       <c r="F5" s="455"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
       <c r="D6" s="453" t="s">
         <v>1329</v>
       </c>
@@ -43720,11 +44043,11 @@
       <c r="F6" s="455"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="462" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B7" s="462"/>
-      <c r="C7" s="462"/>
+      <c r="A7" s="463" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="453" t="s">
         <v>1330</v>
       </c>
@@ -43734,9 +44057,9 @@
       <c r="F7" s="455"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="462"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="453" t="s">
         <v>1331</v>
       </c>
@@ -43746,9 +44069,9 @@
       <c r="F8" s="455"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="462"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
       <c r="D9" s="453" t="s">
         <v>1332</v>
       </c>
@@ -43808,7 +44131,7 @@
         <v>955</v>
       </c>
       <c r="F13" s="416" t="s">
-        <v>1434</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -43822,7 +44145,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="416" t="s">
-        <v>1465</v>
+        <v>1447</v>
       </c>
       <c r="E14" s="416" t="s">
         <v>1358</v>
@@ -43862,7 +44185,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="416" t="s">
-        <v>1465</v>
+        <v>1447</v>
       </c>
       <c r="E16" s="416" t="s">
         <v>1058</v>
@@ -43885,7 +44208,7 @@
         <v>481</v>
       </c>
       <c r="E17" s="416" t="s">
-        <v>1435</v>
+        <v>1418</v>
       </c>
       <c r="F17" s="416" t="s">
         <v>119</v>
@@ -44065,7 +44388,7 @@
         <v>481</v>
       </c>
       <c r="E26" s="416" t="s">
-        <v>1436</v>
+        <v>1419</v>
       </c>
       <c r="F26" s="416" t="s">
         <v>100</v>
@@ -44105,7 +44428,7 @@
         <v>835</v>
       </c>
       <c r="E28" s="416" t="s">
-        <v>1437</v>
+        <v>1420</v>
       </c>
       <c r="F28" s="416" t="s">
         <v>100</v>
@@ -44173,22 +44496,22 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="417" t="s">
-        <v>1438</v>
+        <v>1421</v>
       </c>
       <c r="B32" s="416" t="s">
-        <v>1439</v>
+        <v>1422</v>
       </c>
       <c r="C32" s="418">
         <v>3</v>
       </c>
       <c r="D32" s="416" t="s">
-        <v>1440</v>
+        <v>1423</v>
       </c>
       <c r="E32" s="416" t="s">
         <v>953</v>
       </c>
       <c r="F32" s="416" t="s">
-        <v>1441</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -44268,7 +44591,7 @@
         <v>953</v>
       </c>
       <c r="F36" s="416" t="s">
-        <v>1442</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -44276,7 +44599,7 @@
         <v>1034</v>
       </c>
       <c r="B37" s="416" t="s">
-        <v>1463</v>
+        <v>1445</v>
       </c>
       <c r="C37" s="418">
         <v>3</v>
@@ -44288,7 +44611,7 @@
         <v>938</v>
       </c>
       <c r="F37" s="416" t="s">
-        <v>1434</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -44308,7 +44631,7 @@
         <v>962</v>
       </c>
       <c r="F38" s="416" t="s">
-        <v>1434</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -44373,7 +44696,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="417" t="s">
-        <v>1467</v>
+        <v>1449</v>
       </c>
       <c r="B42" s="416" t="s">
         <v>959</v>
@@ -44382,7 +44705,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="416" t="s">
-        <v>1468</v>
+        <v>1450</v>
       </c>
       <c r="E42" s="416" t="s">
         <v>960</v>
@@ -44393,7 +44716,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="417" t="s">
-        <v>1469</v>
+        <v>1451</v>
       </c>
       <c r="B43" s="416" t="s">
         <v>959</v>
@@ -44402,7 +44725,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="416" t="s">
-        <v>1468</v>
+        <v>1450</v>
       </c>
       <c r="E43" s="416" t="s">
         <v>1058</v>
@@ -44422,7 +44745,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="416" t="s">
-        <v>1470</v>
+        <v>1452</v>
       </c>
       <c r="E44" s="416" t="s">
         <v>966</v>
@@ -44442,7 +44765,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="416" t="s">
-        <v>1470</v>
+        <v>1452</v>
       </c>
       <c r="E45" s="416" t="s">
         <v>962</v>
@@ -44465,7 +44788,7 @@
         <v>767</v>
       </c>
       <c r="E46" s="416" t="s">
-        <v>1471</v>
+        <v>1453</v>
       </c>
       <c r="F46" s="416" t="s">
         <v>100</v>
@@ -44588,7 +44911,7 @@
         <v>968</v>
       </c>
       <c r="F52" s="416" t="s">
-        <v>1472</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -44945,7 +45268,7 @@
         <v>628</v>
       </c>
       <c r="E70" s="416" t="s">
-        <v>1443</v>
+        <v>1426</v>
       </c>
       <c r="F70" s="416" t="s">
         <v>1249</v>
@@ -45102,7 +45425,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="416" t="s">
-        <v>1466</v>
+        <v>1448</v>
       </c>
       <c r="E78" s="416" t="s">
         <v>993</v>
@@ -45160,7 +45483,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -45173,7 +45496,7 @@
       <c r="E2" s="458" t="s">
         <v>1320</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -45187,11 +45510,11 @@
       <c r="F3" s="458"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="460" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="460"/>
+      <c r="C4" s="460"/>
       <c r="D4" s="459" t="s">
         <v>1134</v>
       </c>
@@ -45201,9 +45524,9 @@
       <c r="F4" s="458"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
       <c r="D5" s="408" t="s">
         <v>1322</v>
       </c>
@@ -45212,33 +45535,33 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460"/>
       <c r="D6" s="410"/>
       <c r="E6" s="458"/>
       <c r="F6" s="458"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="464" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B7" s="464"/>
-      <c r="C7" s="464"/>
+      <c r="A7" s="463" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="408"/>
       <c r="E7" s="458"/>
       <c r="F7" s="458"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="464"/>
-      <c r="B8" s="464"/>
-      <c r="C8" s="464"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="464"/>
-      <c r="B9" s="464"/>
-      <c r="C9" s="464"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -45273,12 +45596,12 @@
     </row>
     <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B13" s="416" t="s">
-        <v>1462</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="417" t="s">
-        <v>1445</v>
+        <v>1428</v>
       </c>
       <c r="B14" s="416" t="s">
         <v>1006</v>
@@ -45290,7 +45613,7 @@
         <v>896</v>
       </c>
       <c r="E14" s="416" t="s">
-        <v>1446</v>
+        <v>1429</v>
       </c>
       <c r="F14" s="416" t="s">
         <v>189</v>
@@ -45298,15 +45621,15 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="416" t="s">
-        <v>1448</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="417" t="s">
-        <v>1447</v>
+        <v>1430</v>
       </c>
       <c r="B17" s="416" t="s">
-        <v>1456</v>
+        <v>1438</v>
       </c>
       <c r="C17" s="418">
         <v>3</v>
@@ -45318,17 +45641,17 @@
         <v>1384</v>
       </c>
       <c r="F17" s="416" t="s">
-        <v>1464</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="416" t="s">
-        <v>1457</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="417" t="s">
-        <v>1449</v>
+        <v>1432</v>
       </c>
       <c r="B20" s="416" t="s">
         <v>1215</v>
@@ -45340,7 +45663,7 @@
         <v>936</v>
       </c>
       <c r="E20" s="416" t="s">
-        <v>1450</v>
+        <v>1433</v>
       </c>
       <c r="F20" s="416" t="s">
         <v>432</v>
@@ -45348,7 +45671,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="417" t="s">
-        <v>1451</v>
+        <v>1434</v>
       </c>
       <c r="B21" s="416" t="s">
         <v>961</v>
@@ -45360,7 +45683,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="416" t="s">
-        <v>1452</v>
+        <v>1435</v>
       </c>
       <c r="F21" s="416" t="s">
         <v>432</v>
@@ -45368,10 +45691,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="417" t="s">
-        <v>1454</v>
+        <v>1437</v>
       </c>
       <c r="B22" s="416" t="s">
-        <v>1453</v>
+        <v>1436</v>
       </c>
       <c r="C22" s="418">
         <v>3</v>
@@ -45388,10 +45711,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="417" t="s">
-        <v>1458</v>
+        <v>1440</v>
       </c>
       <c r="B23" s="416" t="s">
-        <v>1459</v>
+        <v>1441</v>
       </c>
       <c r="C23" s="418">
         <v>3</v>
@@ -45408,10 +45731,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="417" t="s">
-        <v>1460</v>
+        <v>1442</v>
       </c>
       <c r="B24" s="416" t="s">
-        <v>1461</v>
+        <v>1443</v>
       </c>
       <c r="C24" s="418">
         <v>3</v>
@@ -45452,7 +45775,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -45478,7 +45801,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="463" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -45491,7 +45814,7 @@
       <c r="E2" s="453" t="s">
         <v>1305</v>
       </c>
-      <c r="F2" s="463"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -45505,11 +45828,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="463" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="461"/>
-      <c r="C4" s="461"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
       <c r="D4" s="453" t="s">
         <v>1307</v>
       </c>
@@ -45519,9 +45842,9 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
       <c r="D5" s="453" t="s">
         <v>1309</v>
       </c>
@@ -45530,9 +45853,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
       <c r="D6" s="453" t="s">
         <v>1311</v>
       </c>
@@ -45542,11 +45865,11 @@
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="462" t="s">
+      <c r="A7" s="463" t="s">
         <v>1303</v>
       </c>
-      <c r="B7" s="462"/>
-      <c r="C7" s="462"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="453" t="s">
         <v>1312</v>
       </c>
@@ -45556,9 +45879,9 @@
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="462"/>
-      <c r="B8" s="462"/>
-      <c r="C8" s="462"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="453" t="s">
         <v>1314</v>
       </c>
@@ -45567,9 +45890,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="462"/>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
       <c r="D9" s="453" t="s">
         <v>1315</v>
       </c>
@@ -45616,7 +45939,7 @@
     </row>
     <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="417" t="s">
-        <v>1431</v>
+        <v>1473</v>
       </c>
       <c r="B13" s="416" t="s">
         <v>1395</v>
@@ -45631,12 +45954,12 @@
         <v>938</v>
       </c>
       <c r="F13" s="416" t="s">
-        <v>1401</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="417" t="s">
-        <v>1432</v>
+        <v>1475</v>
       </c>
       <c r="B14" s="416" t="s">
         <v>1395</v>
@@ -45651,7 +45974,7 @@
         <v>938</v>
       </c>
       <c r="F14" s="416" t="s">
-        <v>1433</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -45668,7 +45991,7 @@
         <v>896</v>
       </c>
       <c r="E15" s="416" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="F15" s="416" t="s">
         <v>14</v>
@@ -45685,7 +46008,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="416" t="s">
-        <v>1415</v>
+        <v>1477</v>
       </c>
       <c r="E16" s="416" t="s">
         <v>957</v>
@@ -45705,7 +46028,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="416" t="s">
-        <v>1415</v>
+        <v>1477</v>
       </c>
       <c r="E17" s="416" t="s">
         <v>1234</v>
@@ -45768,7 +46091,7 @@
         <v>59</v>
       </c>
       <c r="E20" s="416" t="s">
-        <v>1410</v>
+        <v>1478</v>
       </c>
       <c r="F20" s="416" t="s">
         <v>119</v>
@@ -45808,7 +46131,7 @@
         <v>765</v>
       </c>
       <c r="E22" s="416" t="s">
-        <v>1414</v>
+        <v>1479</v>
       </c>
       <c r="F22" s="416" t="s">
         <v>189</v>
@@ -45896,7 +46219,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="417" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="B27" s="416" t="s">
         <v>944</v>
@@ -45908,7 +46231,7 @@
         <v>835</v>
       </c>
       <c r="E27" s="416" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="F27" s="416" t="s">
         <v>19</v>
@@ -45916,7 +46239,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="417" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="B28" s="416" t="s">
         <v>944</v>
@@ -45928,7 +46251,7 @@
         <v>835</v>
       </c>
       <c r="E28" s="416" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="F28" s="416" t="s">
         <v>19</v>
@@ -45948,7 +46271,7 @@
         <v>765</v>
       </c>
       <c r="E29" s="416" t="s">
-        <v>1416</v>
+        <v>1480</v>
       </c>
       <c r="F29" s="416" t="s">
         <v>100</v>
@@ -45988,7 +46311,7 @@
         <v>767</v>
       </c>
       <c r="E31" s="416" t="s">
-        <v>1416</v>
+        <v>1480</v>
       </c>
       <c r="F31" s="416" t="s">
         <v>66</v>
@@ -46028,7 +46351,7 @@
         <v>835</v>
       </c>
       <c r="E33" s="416" t="s">
-        <v>1429</v>
+        <v>1481</v>
       </c>
       <c r="F33" s="416" t="s">
         <v>100</v>
@@ -46048,7 +46371,7 @@
         <v>835</v>
       </c>
       <c r="E34" s="416" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="F34" s="416" t="s">
         <v>100</v>
@@ -46131,15 +46454,15 @@
         <v>953</v>
       </c>
       <c r="F38" s="416" t="s">
-        <v>1455</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="417" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B39" s="416" t="s">
         <v>1402</v>
-      </c>
-      <c r="B39" s="416" t="s">
-        <v>1403</v>
       </c>
       <c r="C39" s="418">
         <v>3</v>
@@ -46308,7 +46631,7 @@
         <v>481</v>
       </c>
       <c r="E47" s="416" t="s">
-        <v>1422</v>
+        <v>1483</v>
       </c>
       <c r="F47" s="416" t="s">
         <v>77</v>
@@ -46328,7 +46651,7 @@
         <v>765</v>
       </c>
       <c r="E48" s="416" t="s">
-        <v>1417</v>
+        <v>1484</v>
       </c>
       <c r="F48" s="416" t="s">
         <v>100</v>
@@ -46368,7 +46691,7 @@
         <v>767</v>
       </c>
       <c r="E50" s="416" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="F50" s="416" t="s">
         <v>100</v>
@@ -46408,7 +46731,7 @@
         <v>765</v>
       </c>
       <c r="E52" s="416" t="s">
-        <v>1419</v>
+        <v>1485</v>
       </c>
       <c r="F52" s="416" t="s">
         <v>100</v>
@@ -46505,7 +46828,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="416" t="s">
-        <v>1427</v>
+        <v>1486</v>
       </c>
       <c r="E57" s="416" t="s">
         <v>968</v>
@@ -46565,7 +46888,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="416" t="s">
-        <v>1415</v>
+        <v>1477</v>
       </c>
       <c r="E60" s="416" t="s">
         <v>947</v>
@@ -46616,10 +46939,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="417" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B63" s="416" t="s">
         <v>1404</v>
-      </c>
-      <c r="B63" s="416" t="s">
-        <v>1405</v>
       </c>
       <c r="C63" s="418">
         <v>1</v>
@@ -46728,7 +47051,7 @@
         <v>481</v>
       </c>
       <c r="E68" s="416" t="s">
-        <v>1420</v>
+        <v>1487</v>
       </c>
       <c r="F68" s="416" t="s">
         <v>417</v>
@@ -46776,16 +47099,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="417" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B71" s="416" t="s">
-        <v>1412</v>
+        <v>1488</v>
       </c>
       <c r="C71" s="418">
         <v>3</v>
       </c>
       <c r="D71" s="416" t="s">
-        <v>1413</v>
+        <v>1489</v>
       </c>
       <c r="E71" s="416" t="s">
         <v>988</v>
@@ -46836,10 +47159,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="417" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B74" s="416" t="s">
         <v>1406</v>
-      </c>
-      <c r="B74" s="416" t="s">
-        <v>1407</v>
       </c>
       <c r="C74" s="418">
         <v>3</v>
@@ -46868,10 +47191,10 @@
         <v>628</v>
       </c>
       <c r="E75" s="416" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F75" s="416" t="s">
-        <v>1409</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
